--- a/ConfigSheet.xlsx
+++ b/ConfigSheet.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.299</v>
+        <v>0.4913160583263677</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.621</v>
+        <v>0.4292746354602025</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.486</v>
+        <v>0.4168292003343551</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.367</v>
+        <v>0.4987461688492617</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.699</v>
+        <v>0.4359617349308071</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.817320169391373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.269</v>
+        <v>0.4531438655149995</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.089</v>
+        <v>0.1717284294603882</v>
       </c>
     </row>
     <row r="10">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.121</v>
+        <v>0.3434568589207765</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.192</v>
+        <v>0.4520293489365654</v>
       </c>
     </row>
     <row r="13">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.254</v>
+        <v>0.4372620042723136</v>
       </c>
     </row>
     <row r="14">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.997</v>
+        <v>0.284944738552986</v>
       </c>
     </row>
     <row r="15">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5.237</v>
+        <v>0.6878424816569146</v>
       </c>
     </row>
     <row r="16">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.328</v>
+        <v>0.09928485186217145</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.51742429676118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.843</v>
+        <v>0.3240456951797158</v>
       </c>
     </row>
     <row r="20">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3.898</v>
+        <v>0.3404848147116188</v>
       </c>
     </row>
     <row r="21">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.65</v>
+        <v>0.1021640196897929</v>
       </c>
     </row>
     <row r="22">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7.309</v>
+        <v>0.9145537289867187</v>
       </c>
     </row>
     <row r="23">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.890078983651763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3.611</v>
+        <v>0.2679483607318659</v>
       </c>
     </row>
     <row r="26">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.134</v>
+        <v>0.1563109501253831</v>
       </c>
     </row>
     <row r="27">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.579</v>
+        <v>0.1935543791213895</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.013</v>
+        <v>0.375499210550757</v>
       </c>
     </row>
     <row r="29">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.518</v>
+        <v>0.2356273799572769</v>
       </c>
     </row>
     <row r="30">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3.884</v>
+        <v>0.3435497353023126</v>
       </c>
     </row>
     <row r="31">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7.511</v>
+        <v>0.6271013281322559</v>
       </c>
     </row>
     <row r="32">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3.672945681554898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4.203</v>
+        <v>0.3439212408284573</v>
       </c>
     </row>
     <row r="34">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4.355</v>
+        <v>0.3881303984396768</v>
       </c>
     </row>
     <row r="35">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.736</v>
+        <v>0.230890684498932</v>
       </c>
     </row>
     <row r="36">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4.244</v>
+        <v>0.3908238135042259</v>
       </c>
     </row>
     <row r="37">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3.283</v>
+        <v>0.3089068449893193</v>
       </c>
     </row>
     <row r="38">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8026257632460114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.469</v>
+        <v>0.07820191325345964</v>
       </c>
     </row>
     <row r="40">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3.048</v>
+        <v>0.3238599424166435</v>
       </c>
     </row>
     <row r="41">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9379999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4.215089915304314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3.025</v>
+        <v>0.394538868765673</v>
       </c>
     </row>
     <row r="44">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5.088</v>
+        <v>0.4280672425002322</v>
       </c>
     </row>
     <row r="46">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3.411942288753201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4.689</v>
+        <v>0.3163369555122132</v>
       </c>
     </row>
     <row r="50">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.455668898956077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4.291</v>
+        <v>0.413114145072908</v>
       </c>
     </row>
     <row r="54">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3.892</v>
+        <v>0.1227825763908238</v>
       </c>
     </row>
     <row r="55">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3.387</v>
+        <v>0.2204885297668803</v>
       </c>
     </row>
     <row r="57">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2.952</v>
+        <v>0.2243893377913997</v>
       </c>
     </row>
     <row r="58">
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3.363</v>
+        <v>0.239899693507941</v>
       </c>
     </row>
     <row r="59">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3.344</v>
+        <v>0.4667966936008173</v>
       </c>
     </row>
     <row r="61">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2.29617592893511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4.836</v>
+        <v>0.2128726664809139</v>
       </c>
     </row>
     <row r="64">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3.45</v>
+        <v>0.4276957369740875</v>
       </c>
     </row>
     <row r="65">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2.098</v>
+        <v>0.2890312993405777</v>
       </c>
     </row>
     <row r="66">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1.766507287768367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.993</v>
+        <v>0.1637410606482771</v>
       </c>
     </row>
     <row r="69">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3.095</v>
+        <v>0.1525958948639361</v>
       </c>
     </row>
     <row r="70">
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2.00708627142013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3.822</v>
+        <v>0.1861242685984954</v>
       </c>
     </row>
     <row r="72">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>5.223</v>
+        <v>0.7430110522894029</v>
       </c>
     </row>
     <row r="73">
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4.012</v>
+        <v>0.5112844803566453</v>
       </c>
     </row>
     <row r="74">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2.195</v>
+        <v>0.08386737252716635</v>
       </c>
     </row>
     <row r="75">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.757</v>
+        <v>0.1206464196154918</v>
       </c>
     </row>
     <row r="78">
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7.84</v>
+        <v>0.8964428345871644</v>
       </c>
     </row>
     <row r="79">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.839</v>
+        <v>0.1292839230983561</v>
       </c>
     </row>
     <row r="80">
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3.353</v>
+        <v>0.2642333054704189</v>
       </c>
     </row>
     <row r="81">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.454</v>
+        <v>0.1674561159097241</v>
       </c>
     </row>
     <row r="82">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4.696769745912941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2.743</v>
+        <v>0.4392124082845733</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigSheet.xlsx
+++ b/ConfigSheet.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanj\Documents\B2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA778B6-3142-4A0C-92F6-BA5C540F8306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Tickers</t>
   </si>
@@ -515,14 +534,19 @@
   </si>
   <si>
     <t>Yahoo! Inc.</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +565,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -585,47 +615,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -636,10 +664,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -677,71 +705,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -769,7 +797,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -792,11 +820,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -805,13 +833,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -821,7 +849,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -830,7 +858,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -839,7 +867,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -847,10 +875,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -915,24 +943,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -942,1156 +970,1737 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
-        <v>0.4913160583263677</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="D2" s="5">
+        <v>0.49131605832636771</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2-D2</f>
+        <v>-0.19431605832636772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0.4292746354602025</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="E3" s="8">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+        <v>1.5725364539797504E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
-        <v>0.4168292003343551</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="D4" s="5">
+        <v>0.41682920033435511</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.12582920033435513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6">
-        <v>0.4987461688492617</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="D5" s="5">
+        <v>0.49874616884926171</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.13374616884926172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6">
-        <v>0.4359617349308071</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="D6" s="5">
+        <v>0.43596173493080709</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.12996173493080709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="E7" s="8">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6">
-        <v>0.4531438655149995</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="D8" s="5">
+        <v>0.45314386551499952</v>
+      </c>
+      <c r="E8" s="8">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.38014386551499951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6">
-        <v>0.1717284294603882</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="D9" s="5">
+        <v>0.17172842946038819</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14727157053961182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="E10" s="8">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6">
-        <v>0.3434568589207765</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="D11" s="5">
+        <v>0.34345685892077649</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.5456858920776479E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="6">
-        <v>0.4520293489365654</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="D12" s="5">
+        <v>0.45202934893656538</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>-5.3029348936565357E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>0.4372620042723136</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+      <c r="E13" s="8">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>4.7737995727686389E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6">
-        <v>0.284944738552986</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="D14" s="5">
+        <v>0.28494473855298602</v>
+      </c>
+      <c r="E14" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.284944738552986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6">
-        <v>0.6878424816569146</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+      <c r="D15" s="5">
+        <v>0.68784248165691464</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.22884248165691462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+      <c r="E16" s="8">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="6">
-        <v>0.09928485186217145</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+      <c r="D17" s="5">
+        <v>9.9284851862171453E-2</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10971514813782854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+      <c r="E18" s="8">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="6">
-        <v>0.3240456951797158</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+      <c r="D19" s="5">
+        <v>0.32404569517971582</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>3.995430482028417E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="6">
-        <v>0.3404848147116188</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+      <c r="D20" s="5">
+        <v>0.34048481471161879</v>
+      </c>
+      <c r="E20" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.3404848147116188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>0.1021640196897929</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+      <c r="E21" s="8">
+        <v>0.189</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>8.6835980310207103E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="6">
-        <v>0.9145537289867187</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+      <c r="D22" s="5">
+        <v>0.91455372898671872</v>
+      </c>
+      <c r="E22" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.9145537289867187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
+      <c r="E23" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
+      <c r="E24" s="8">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>0.2679483607318659</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="E25" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.2679483607318658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>0.1563109501253831</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="E26" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.13931095012538308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="6">
-        <v>0.1935543791213895</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="D27" s="5">
+        <v>0.19355437912138951</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.218</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4445620878610491E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="6">
-        <v>0.375499210550757</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="D28" s="5">
+        <v>0.37549921055075702</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.1499210550757051E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="6">
-        <v>0.2356273799572769</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="D29" s="5">
+        <v>0.23562737995727689</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15037262004272312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="6">
-        <v>0.3435497353023126</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="D30" s="5">
+        <v>0.34354973530231259</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14745026469768741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="6">
-        <v>0.6271013281322559</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="D31" s="5">
+        <v>0.62710132813225594</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6101328132255954E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="E32" s="8">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="6">
-        <v>0.3439212408284573</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="D33" s="5">
+        <v>0.34392124082845732</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>-5.8921240828457344E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="6">
-        <v>0.3881303984396768</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="D34" s="5">
+        <v>0.38813039843967678</v>
+      </c>
+      <c r="E34" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.3881303984396767</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="6">
-        <v>0.230890684498932</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="D35" s="5">
+        <v>0.23089068449893199</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25910931550106797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>0.3908238135042259</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="E36" s="8">
+        <v>0.497</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10617618649577409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="6">
-        <v>0.3089068449893193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="D37" s="5">
+        <v>0.30890684498931931</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="0"/>
+        <v>8.8093155010680713E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="E38" s="8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="6">
-        <v>0.07820191325345964</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="D39" s="5">
+        <v>7.820191325345964E-2</v>
+      </c>
+      <c r="E39" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.201913253459642E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="6">
-        <v>0.3238599424166435</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="D40" s="5">
+        <v>0.32385994241664351</v>
+      </c>
+      <c r="E40" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.3238599424166435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="E41" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="E42" s="8">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="6">
-        <v>0.394538868765673</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="D43" s="5">
+        <v>0.39453886876567301</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.313</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.1538868765673012E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="E44" s="8">
+        <v>0.371</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="0"/>
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>0.4280672425002322</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="E45" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1932757499767799E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="E46" s="8">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="0"/>
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="E47" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="E48" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="6">
-        <v>0.3163369555122132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="D49" s="5">
+        <v>0.31633695551221319</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F49" s="9">
+        <f t="shared" si="0"/>
+        <v>7.0663044487786819E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="E50" s="8">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" si="0"/>
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="E51" s="8">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="E52" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>0.413114145072908</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="E53" s="8">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F53" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.20911414507290801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="6">
-        <v>0.1227825763908238</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="D54" s="5">
+        <v>0.12278257639082379</v>
+      </c>
+      <c r="E54" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.1227825763908239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="E55" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>54</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>0.2204885297668803</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="E56" s="8">
+        <v>0.184</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.6488529766880301E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>55</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="6">
-        <v>0.2243893377913997</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="D57" s="5">
+        <v>0.22438933779139969</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="F57" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5610662208600319E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>56</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="6">
-        <v>0.239899693507941</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="D58" s="5">
+        <v>0.23989969350794099</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F58" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6100306492059031E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="E59" s="8">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F59" s="9">
+        <f t="shared" si="0"/>
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>58</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="6">
-        <v>0.4667966936008173</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="D60" s="5">
+        <v>0.46679669360081733</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F60" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.17079669360081734</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>59</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="E61" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="F61" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="E62" s="8">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F62" s="9">
+        <f t="shared" si="0"/>
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="6">
-        <v>0.2128726664809139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="D63" s="5">
+        <v>0.21287266648091391</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" si="0"/>
+        <v>-7.8726664809139202E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="6">
-        <v>0.4276957369740875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="D64" s="5">
+        <v>0.42769573697408753</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="F64" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29230426302591245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>63</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>0.2890312993405777</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="E65" s="8">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F65" s="9">
+        <f t="shared" si="0"/>
+        <v>0.3279687006594223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>64</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="E66" s="8">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="F66" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.10099999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>65</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="E67" s="8">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F67" s="9">
+        <f t="shared" ref="F67:F83" si="1">E67-D67</f>
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>66</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="6">
-        <v>0.1637410606482771</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="D68" s="5">
+        <v>0.16374106064827709</v>
+      </c>
+      <c r="E68" s="8">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F68" s="9">
+        <f t="shared" si="1"/>
+        <v>0.10125893935172292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>67</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>0.1525958948639361</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="E69" s="8">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F69" s="9">
+        <f t="shared" si="1"/>
+        <v>0.29540410513606391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>68</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="E70" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F70" s="9">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>69</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>0.1861242685984954</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="E71" s="8">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="F71" s="9">
+        <f t="shared" si="1"/>
+        <v>0.22587573140150458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>70</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>0.7430110522894029</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="E72" s="8">
+        <v>0.185</v>
+      </c>
+      <c r="F72" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.55801105228940284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>71</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="6">
-        <v>0.5112844803566453</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="D73" s="5">
+        <v>0.51128448035664531</v>
+      </c>
+      <c r="E73" s="8">
+        <v>0.218</v>
+      </c>
+      <c r="F73" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.29328448035664534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>72</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="6">
-        <v>0.08386737252716635</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="D74" s="5">
+        <v>8.3867372527166348E-2</v>
+      </c>
+      <c r="E74" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F74" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.5867372527166343E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>73</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="E75" s="8">
+        <v>0.313</v>
+      </c>
+      <c r="F75" s="9">
+        <f t="shared" si="1"/>
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>74</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="E76" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F76" s="9">
+        <f t="shared" si="1"/>
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>75</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>0.1206464196154918</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="E77" s="8">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F77" s="9">
+        <f t="shared" si="1"/>
+        <v>0.24735358038450819</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>76</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="6">
-        <v>0.8964428345871644</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="D78" s="5">
+        <v>0.89644283458716445</v>
+      </c>
+      <c r="E78" s="8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F78" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.42044283458716447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>77</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="5">
         <v>0.1292839230983561</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="E79" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="F79" s="9">
+        <f t="shared" si="1"/>
+        <v>0.34071607690164385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>78</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="5">
         <v>0.2642333054704189</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="E80" s="8">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="F80" s="9">
+        <f t="shared" si="1"/>
+        <v>6.9766694529581119E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>79</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="6">
-        <v>0.1674561159097241</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="D81" s="5">
+        <v>0.16745611590972409</v>
+      </c>
+      <c r="E81" s="8">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F81" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1375438840902759</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>80</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" t="s">
         <v>164</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="E82" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="F82" s="9">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>81</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" t="s">
         <v>166</v>
       </c>
-      <c r="D83" s="6">
-        <v>0.4392124082845733</v>
+      <c r="D83" s="5">
+        <v>0.43921240828457331</v>
+      </c>
+      <c r="E83" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F83" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.4392124082845732</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>